--- a/Vinasa/Content/Files/MauKyPhi.xlsx
+++ b/Vinasa/Content/Files/MauKyPhi.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2C7DEC-9400-429F-BC94-9FB51EC338AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DE8D41-4373-438D-A4E9-2F3A60D431F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{892C05B1-ADAF-2E46-8D84-C3AE018D9302}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{0A8B48B1-9FC9-40A9-9AD8-3C378A96A4B9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hội phí" sheetId="1" r:id="rId1"/>
+    <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,15 +35,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>STT</t>
+    <t xml:space="preserve">Mã số thuế </t>
   </si>
   <si>
     <t>Tên Công ty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mã số thuế </t>
   </si>
   <si>
     <t>Năm</t>
@@ -55,26 +53,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -85,15 +73,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="163"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="163"/>
     </font>
   </fonts>
   <fills count="3">
@@ -119,35 +98,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
-    <cellStyle name="Dấu phẩy [0]" xfId="1" builtinId="6"/>
-    <cellStyle name="Tiền tệ" xfId="2" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -458,78 +420,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83DD1C6C-DB5B-4A4C-9103-79D64D3522AC}">
-  <dimension ref="A1:N3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9CB02F-0994-4A0F-A88F-3C910B62B95A}">
+  <dimension ref="B1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="30.69921875" customWidth="1"/>
-    <col min="4" max="5" width="29.296875" customWidth="1"/>
-    <col min="6" max="7" width="19.796875" customWidth="1"/>
-    <col min="8" max="8" width="20.19921875" customWidth="1"/>
-    <col min="9" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="22.19921875" customWidth="1"/>
-    <col min="11" max="11" width="13.296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5" customWidth="1"/>
-    <col min="13" max="13" width="17.5" customWidth="1"/>
-    <col min="14" max="14" width="22.296875" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="1"/>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="9"/>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>